--- a/artfynd/A 46891-2019.xlsx
+++ b/artfynd/A 46891-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY9"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1643,6 +1643,119 @@
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112058967</v>
+      </c>
+      <c r="B10" t="n">
+        <v>86149</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4379</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Toppvaxskivling</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hygrocybe conica</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Schaeff.) P.Kumm.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Söder Hässleby (Söder Hässleby), Nrk</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>513646.2891263207</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6578480.707588105</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Axberg</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Erik Göthlin</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Erik Göthlin</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 46891-2019.xlsx
+++ b/artfynd/A 46891-2019.xlsx
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>513646.2891263207</v>
+        <v>513646</v>
       </c>
       <c r="R10" t="n">
-        <v>6578480.707588105</v>
+        <v>6578481</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1719,19 +1719,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 46891-2019.xlsx
+++ b/artfynd/A 46891-2019.xlsx
@@ -1648,7 +1648,7 @@
         <v>112058967</v>
       </c>
       <c r="B10" t="n">
-        <v>86149</v>
+        <v>86283</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>

--- a/artfynd/A 46891-2019.xlsx
+++ b/artfynd/A 46891-2019.xlsx
@@ -1648,7 +1648,7 @@
         <v>112058967</v>
       </c>
       <c r="B10" t="n">
-        <v>86283</v>
+        <v>86297</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
